--- a/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180819.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-IBOPE-20180819.xlsx
@@ -71,10 +71,10 @@
 Centro Oeste</t>
   </si>
   <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>Haddad</t>
+    <t>Jair Bolsonaro</t>
+  </si>
+  <si>
+    <t>Fernando Haddad</t>
   </si>
   <si>
     <t>Ciro Gomes</t>
@@ -101,13 +101,13 @@
     <t>Vera (PSTU)</t>
   </si>
   <si>
-    <t>Guilherme Boulos (PSOL)</t>
-  </si>
-  <si>
-    <t>João Goulart Filho (PPL)</t>
-  </si>
-  <si>
-    <t>Eymael (DC)</t>
+    <t>Guilherme Boulos</t>
+  </si>
+  <si>
+    <t>João Goulart Filho</t>
+  </si>
+  <si>
+    <t>Eymael</t>
   </si>
   <si>
     <t>Em branco/ nulo/ nenhum</t>
@@ -123,13 +123,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,12 +148,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,7 +242,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
@@ -286,7 +292,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1">
@@ -336,7 +342,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1">
@@ -386,7 +392,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1">
@@ -436,7 +442,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
@@ -486,7 +492,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
@@ -536,7 +542,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1">
@@ -586,7 +592,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1">
@@ -636,7 +642,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1">
@@ -686,7 +692,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1">
@@ -736,7 +742,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="1">
@@ -786,7 +792,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1">
@@ -836,7 +842,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
@@ -886,7 +892,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="1">
@@ -936,7 +942,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1">
@@ -986,7 +992,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1">
